--- a/신창상회 스키마.xlsx
+++ b/신창상회 스키마.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://schackr-my.sharepoint.com/personal/sontneptm_sch_ac_kr/Documents/프로젝트/DB 프로젝트 - 신창상회/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjhan\Desktop\OneDrive - sch.ac.kr\프로젝트\DB 프로젝트 - 신창상회\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="8_{64D7E5DF-8E85-4393-B494-0697994FFF2C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{F70EE102-CABF-4328-96EB-B1B59C4A2BF9}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{64D7E5DF-8E85-4393-B494-0697994FFF2C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{BA441517-7C08-4BE4-990A-7C98FC5DC4E3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12705" xr2:uid="{3BF1D624-F94D-4661-B34C-BEF4854121C1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>신창상회</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,18 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>table_num(pk)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_capacity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_num(fk)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>order_id(pk)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,22 +73,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>menu_id(fk)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>table_time_first_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_people_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>order_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>table_master (default table_num)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>people_point</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,6 +102,38 @@
   </si>
   <si>
     <t>people_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat_capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat_people_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat_time_first_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat_master (default table_num)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat_num(fk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat_id(pk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">seat_total_cost </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF642CAD-26E5-4BD0-B89F-79D2F3EC9F26}">
-  <dimension ref="B2:J13"/>
+  <dimension ref="B2:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -538,14 +542,14 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -555,13 +559,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -571,13 +575,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -587,54 +591,59 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
-        <v>19</v>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
